--- a/data/georgia_census/imereti/khoni/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/khoni/healthcare_staff.xlsx
@@ -1376,13 +1376,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBEB730-B202-465A-8E05-28ABA7D96120}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07CDFE4-499C-4553-8076-41AB714A0A31}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB5EE5B5-0209-4987-8D98-6D94F56E971A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840C8001-4B8E-49C9-9F08-6EF3A3F95032}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875600E7-CD49-4F82-9F08-08795C30670B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C0E7A2D-1A0E-4497-8A7E-2D008A249E7A}"/>
 </file>